--- a/Assets/Resources/Additional/Excel/DemoGuide.xlsx
+++ b/Assets/Resources/Additional/Excel/DemoGuide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\Resources\Additional\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD47B4-12E8-41D1-BE09-188046A85A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90473BEF-B8BB-4DC1-B98B-90326C241EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
     <t>Daily</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(나가시는 문은 날 넘어갈 때 왼쪽 상단에 있습니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>하지만 그러면 데모인데 너무 길어질 것으로 생각이 되어서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,6 +193,33 @@
   </si>
   <si>
     <t>Manu_6</t>
+  </si>
+  <si>
+    <t>(나가시는 문은 하루 넘어가실 때 왼쪽 상단에 있습니다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시에서 가장 가까운 집에는 상점이 배치되어 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 오른쪽으로 가시면 도시가 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 아래로 가시면 해변이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변에서는 다양한 물고기를 잡을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위는 집에 갈 수 있고 집 오른쪽으로 가시면 광산이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manu_1</t>
   </si>
 </sst>
 </file>
@@ -519,10 +542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -562,13 +585,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -588,13 +611,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -606,21 +629,21 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -637,16 +660,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -663,42 +686,42 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -715,68 +738,68 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -793,42 +816,42 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
       <c r="D12">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>0</v>
@@ -845,68 +868,68 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
         <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
@@ -923,42 +946,42 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
@@ -975,42 +998,42 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
@@ -1027,68 +1050,68 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>29</v>
-      </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
@@ -1105,42 +1128,42 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
@@ -1157,68 +1180,68 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>39</v>
-      </c>
       <c r="E25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26">
-        <v>35</v>
-      </c>
       <c r="D26">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>0</v>
@@ -1235,22 +1258,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1261,16 +1284,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
@@ -1287,68 +1310,68 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
       <c r="D31">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
         <v>40</v>
       </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
       <c r="D32">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>0</v>
@@ -1365,16 +1388,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>0</v>
@@ -1383,53 +1406,53 @@
         <v>2</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>3</v>
@@ -1438,6 +1461,136 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Additional/Excel/DemoGuide.xlsx
+++ b/Assets/Resources/Additional/Excel/DemoGuide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\Resources\Additional\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90473BEF-B8BB-4DC1-B98B-90326C241EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB48F21-CCDC-4D21-91FE-5BDF07472C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,8 +544,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
